--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H2">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I2">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J2">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>44.13150278880001</v>
+        <v>16.61977780917456</v>
       </c>
       <c r="R2">
-        <v>397.1835250992</v>
+        <v>149.578000282571</v>
       </c>
       <c r="S2">
-        <v>0.008404903528471999</v>
+        <v>0.003222962135524601</v>
       </c>
       <c r="T2">
-        <v>0.008404903528471999</v>
+        <v>0.0032229621355246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H3">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I3">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J3">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>41.70007738073333</v>
+        <v>28.94620421966467</v>
       </c>
       <c r="R3">
-        <v>375.3006964266</v>
+        <v>260.515837976982</v>
       </c>
       <c r="S3">
-        <v>0.007941835318688252</v>
+        <v>0.005613343405568376</v>
       </c>
       <c r="T3">
-        <v>0.007941835318688254</v>
+        <v>0.005613343405568376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H4">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I4">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J4">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>48.90822361024446</v>
+        <v>35.75946492971688</v>
       </c>
       <c r="R4">
-        <v>440.1740124922001</v>
+        <v>321.835184367452</v>
       </c>
       <c r="S4">
-        <v>0.009314636375749365</v>
+        <v>0.006934593396999301</v>
       </c>
       <c r="T4">
-        <v>0.009314636375749367</v>
+        <v>0.006934593396999301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>41.695506</v>
       </c>
       <c r="I5">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J5">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1563.767603738784</v>
+        <v>848.3868877070462</v>
       </c>
       <c r="R5">
-        <v>14073.90843364906</v>
+        <v>7635.481989363416</v>
       </c>
       <c r="S5">
-        <v>0.2978216244589321</v>
+        <v>0.1645219837924641</v>
       </c>
       <c r="T5">
-        <v>0.2978216244589321</v>
+        <v>0.1645219837924641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>41.695506</v>
       </c>
       <c r="I6">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J6">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>1477.611818329932</v>
@@ -818,10 +818,10 @@
         <v>13298.50636496939</v>
       </c>
       <c r="S6">
-        <v>0.2814131402918144</v>
+        <v>0.2865433579293772</v>
       </c>
       <c r="T6">
-        <v>0.2814131402918144</v>
+        <v>0.2865433579293772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>41.695506</v>
       </c>
       <c r="I7">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J7">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1733.027221033644</v>
+        <v>1825.407144796152</v>
       </c>
       <c r="R7">
-        <v>15597.2449893028</v>
+        <v>16428.66430316537</v>
       </c>
       <c r="S7">
-        <v>0.33005734417683</v>
+        <v>0.3539889748914921</v>
       </c>
       <c r="T7">
-        <v>0.3300573441768301</v>
+        <v>0.3539889748914921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H8">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I8">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J8">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>111.864639781728</v>
+        <v>188.8189835107945</v>
       </c>
       <c r="R8">
-        <v>1006.781758035552</v>
+        <v>1699.37085159715</v>
       </c>
       <c r="S8">
-        <v>0.02130476974945228</v>
+        <v>0.03661640012946475</v>
       </c>
       <c r="T8">
-        <v>0.02130476974945228</v>
+        <v>0.03661640012946474</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H9">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I9">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J9">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>105.701456789044</v>
+        <v>328.8607657700334</v>
       </c>
       <c r="R9">
-        <v>951.3131111013962</v>
+        <v>2959.746891930301</v>
       </c>
       <c r="S9">
-        <v>0.02013098333366371</v>
+        <v>0.06377376449349077</v>
       </c>
       <c r="T9">
-        <v>0.02013098333366372</v>
+        <v>0.06377376449349077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H10">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I10">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J10">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>123.9726832486814</v>
+        <v>406.2669126173111</v>
       </c>
       <c r="R10">
-        <v>1115.754149238132</v>
+        <v>3656.4022135558</v>
       </c>
       <c r="S10">
-        <v>0.02361076276639788</v>
+        <v>0.07878461982561893</v>
       </c>
       <c r="T10">
-        <v>0.02361076276639789</v>
+        <v>0.07878461982561892</v>
       </c>
     </row>
   </sheetData>
